--- a/Processed Fe2 data_corrected.xlsx
+++ b/Processed Fe2 data_corrected.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheva\Documents\Oregon\Fe paper\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA2333A-778E-42E1-88A0-E6CF5C8B0C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7507AA-58A5-48D9-A088-1FA7FE8A49D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3E38A6EC-D70D-4209-BA8C-2967F7F07786}"/>
   </bookViews>
@@ -88,18 +88,6 @@
     <t>Fe flag</t>
   </si>
   <si>
-    <t>Final dilution and order of magnitude known</t>
-  </si>
-  <si>
-    <t>Order of magnitude known</t>
-  </si>
-  <si>
-    <t>Final dilution known</t>
-  </si>
-  <si>
-    <t>Neither final dilution and order of magnitude known</t>
-  </si>
-  <si>
     <t>Sample number</t>
   </si>
   <si>
@@ -175,12 +163,6 @@
     <t>Using a trace metal clean 5 L bottle mounted on a 10 bottle CTD rosette</t>
   </si>
   <si>
-    <t>To do:</t>
-  </si>
-  <si>
-    <t>Add bottle closure times</t>
-  </si>
-  <si>
     <t>Depth/m</t>
   </si>
   <si>
@@ -242,6 +224,24 @@
   </si>
   <si>
     <t>O2 units corrected with 1026.5 kg m3, T + S based on value at 99 m, pdens set to 26.5, lat + long from cast</t>
+  </si>
+  <si>
+    <t>dFe for station 31 added</t>
+  </si>
+  <si>
+    <t>Final dilution and order of magnitude specified</t>
+  </si>
+  <si>
+    <t>Order of magnitude specified</t>
+  </si>
+  <si>
+    <t>Final dilution specified</t>
+  </si>
+  <si>
+    <t>Neither final dilution and order of magnitude specified</t>
+  </si>
+  <si>
+    <t>dFe for station 32 and samples 1211, 1392, and 1414 added</t>
   </si>
 </sst>
 </file>
@@ -631,8 +631,8 @@
   <dimension ref="A1:Y272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K207" sqref="K207"/>
+      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A219" sqref="A219:XFD248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,7 +649,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -661,10 +661,10 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>0</v>
@@ -673,51 +673,51 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" t="s">
         <v>26</v>
-      </c>
-      <c r="U1" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" t="s">
-        <v>58</v>
-      </c>
-      <c r="W1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>19.5</v>
@@ -780,13 +780,13 @@
         <v>33.940100000000001</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Y2" s="11"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>19.5</v>
@@ -849,13 +849,13 @@
         <v>33.936900000000001</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Y3" s="11"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>19.5</v>
@@ -918,13 +918,13 @@
         <v>33.914999999999999</v>
       </c>
       <c r="W4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Y4" s="11"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>19.5</v>
@@ -987,13 +987,13 @@
         <v>33.827199999999998</v>
       </c>
       <c r="W5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Y5" s="11"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>19.5</v>
@@ -1056,13 +1056,13 @@
         <v>33.63805</v>
       </c>
       <c r="W6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Y6" s="11"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>19.5</v>
@@ -1125,13 +1125,13 @@
         <v>33.197200000000002</v>
       </c>
       <c r="W7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Y7" s="11"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>19.5</v>
@@ -1194,13 +1194,13 @@
         <v>33.084299999999999</v>
       </c>
       <c r="W8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Y8" s="11"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>20</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>20</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>20</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>20</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -1729,7 +1729,7 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>91</v>
@@ -1783,12 +1783,12 @@
         <v>33.888550000000002</v>
       </c>
       <c r="W17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -1797,7 +1797,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>51</v>
@@ -1851,12 +1851,12 @@
         <v>33.888550000000002</v>
       </c>
       <c r="W18" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>20</v>
@@ -1865,7 +1865,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>32</v>
@@ -1886,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="M19" s="14">
         <v>44571.894444444442</v>
@@ -1919,12 +1919,12 @@
         <v>33.888550000000002</v>
       </c>
       <c r="W19" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -1933,7 +1933,7 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>16</v>
@@ -1987,12 +1987,12 @@
         <v>33.888550000000002</v>
       </c>
       <c r="W20" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -2001,7 +2001,7 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E21">
         <v>9</v>
@@ -2055,12 +2055,12 @@
         <v>33.888550000000002</v>
       </c>
       <c r="W21" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -2069,7 +2069,7 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -2123,12 +2123,12 @@
         <v>33.888550000000002</v>
       </c>
       <c r="W22" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -2137,7 +2137,7 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -2191,12 +2191,12 @@
         <v>33.888550000000002</v>
       </c>
       <c r="W23" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>20</v>
@@ -2205,7 +2205,7 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -2259,12 +2259,12 @@
         <v>33.888550000000002</v>
       </c>
       <c r="W24" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>21</v>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>21</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>21</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>21</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <v>21</v>
@@ -2574,7 +2574,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B30">
         <v>21</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B31">
         <v>21</v>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>21</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>21</v>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>21</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>21</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B36">
         <v>21</v>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B37">
         <v>21</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B38">
         <v>21</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B39">
         <v>22</v>
@@ -3194,7 +3194,7 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B40">
         <v>22</v>
@@ -3256,7 +3256,7 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B41">
         <v>22</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B42">
         <v>22</v>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B43">
         <v>22</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B44">
         <v>22</v>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B45">
         <v>22</v>
@@ -3566,7 +3566,7 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B46">
         <v>22</v>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B47">
         <v>22</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B48">
         <v>22</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B49">
         <v>22</v>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B50">
         <v>24</v>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B51">
         <v>24</v>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B52">
         <v>24</v>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B53">
         <v>24</v>
@@ -4062,7 +4062,7 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>24</v>
@@ -4124,7 +4124,7 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B55">
         <v>24</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B56">
         <v>24</v>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B57">
         <v>24</v>
@@ -4310,7 +4310,7 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B58">
         <v>24</v>
@@ -4372,7 +4372,7 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B59">
         <v>24</v>
@@ -4434,7 +4434,7 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B60">
         <v>24</v>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B61">
         <v>24</v>
@@ -4558,7 +4558,7 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B62">
         <v>24</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B63">
         <v>25</v>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B64">
         <v>25</v>
@@ -4744,7 +4744,7 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B65">
         <v>25</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B66">
         <v>25</v>
@@ -4868,7 +4868,7 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B67">
         <v>25</v>
@@ -4930,7 +4930,7 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B68">
         <v>25</v>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B69">
         <v>25</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B70">
         <v>25</v>
@@ -5116,7 +5116,7 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B71">
         <v>25</v>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B72">
         <v>25</v>
@@ -5240,7 +5240,7 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B73">
         <v>25</v>
@@ -5302,7 +5302,7 @@
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B74">
         <v>25</v>
@@ -5364,7 +5364,7 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B75">
         <v>25</v>
@@ -5426,7 +5426,7 @@
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B76">
         <v>25</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B77">
         <v>26</v>
@@ -5550,7 +5550,7 @@
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B78">
         <v>26</v>
@@ -5612,7 +5612,7 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B79">
         <v>26</v>
@@ -5674,7 +5674,7 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B80">
         <v>26</v>
@@ -5736,7 +5736,7 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B81">
         <v>26</v>
@@ -5798,7 +5798,7 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B82">
         <v>26</v>
@@ -5860,7 +5860,7 @@
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B83">
         <v>26</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B84">
         <v>26</v>
@@ -5984,7 +5984,7 @@
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B85">
         <v>26</v>
@@ -6046,7 +6046,7 @@
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B86">
         <v>26</v>
@@ -6108,7 +6108,7 @@
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B87">
         <v>26</v>
@@ -6170,7 +6170,7 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B88">
         <v>26</v>
@@ -6232,7 +6232,7 @@
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B89">
         <v>26</v>
@@ -6294,7 +6294,7 @@
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B90">
         <v>26</v>
@@ -6356,7 +6356,7 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B91">
         <v>27</v>
@@ -6418,7 +6418,7 @@
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B92">
         <v>27</v>
@@ -6480,7 +6480,7 @@
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B93">
         <v>27</v>
@@ -6542,7 +6542,7 @@
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B94">
         <v>27</v>
@@ -6604,7 +6604,7 @@
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B95">
         <v>27</v>
@@ -6666,7 +6666,7 @@
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B96">
         <v>27</v>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B97">
         <v>27</v>
@@ -6790,7 +6790,7 @@
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B98">
         <v>27</v>
@@ -6852,7 +6852,7 @@
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B99">
         <v>27</v>
@@ -6914,7 +6914,7 @@
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B100">
         <v>27</v>
@@ -6976,7 +6976,7 @@
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B101">
         <v>29</v>
@@ -7038,7 +7038,7 @@
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B102">
         <v>29</v>
@@ -7100,7 +7100,7 @@
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B103">
         <v>29</v>
@@ -7162,7 +7162,7 @@
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B104">
         <v>29</v>
@@ -7224,7 +7224,7 @@
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B105">
         <v>29</v>
@@ -7286,7 +7286,7 @@
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B106">
         <v>29</v>
@@ -7348,7 +7348,7 @@
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B107">
         <v>29</v>
@@ -7410,7 +7410,7 @@
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B108">
         <v>29</v>
@@ -7472,7 +7472,7 @@
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B109">
         <v>30</v>
@@ -7501,6 +7501,9 @@
       <c r="J109">
         <v>1</v>
       </c>
+      <c r="K109">
+        <v>10.086002369128844</v>
+      </c>
       <c r="M109" s="14">
         <v>0.78546296296296303</v>
       </c>
@@ -7534,7 +7537,7 @@
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B110">
         <v>30</v>
@@ -7596,7 +7599,7 @@
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B111">
         <v>30</v>
@@ -7658,7 +7661,7 @@
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B112">
         <v>30</v>
@@ -7720,7 +7723,7 @@
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B113">
         <v>30</v>
@@ -7782,7 +7785,7 @@
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B114">
         <v>30</v>
@@ -7844,7 +7847,7 @@
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B115">
         <v>30</v>
@@ -7906,7 +7909,7 @@
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B116">
         <v>30</v>
@@ -7968,7 +7971,7 @@
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B117">
         <v>30</v>
@@ -8030,7 +8033,7 @@
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B118">
         <v>31</v>
@@ -8059,6 +8062,9 @@
       <c r="J118">
         <v>1</v>
       </c>
+      <c r="K118">
+        <v>1.8807903290000001</v>
+      </c>
       <c r="M118" s="14">
         <v>0.55585648148148148</v>
       </c>
@@ -8092,7 +8098,7 @@
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B119">
         <v>31</v>
@@ -8121,6 +8127,9 @@
       <c r="J119">
         <v>1</v>
       </c>
+      <c r="K119">
+        <v>5.1370306120000002</v>
+      </c>
       <c r="M119" s="14">
         <v>0.55703703703703711</v>
       </c>
@@ -8154,7 +8163,7 @@
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B120">
         <v>31</v>
@@ -8183,6 +8192,9 @@
       <c r="J120">
         <v>0</v>
       </c>
+      <c r="K120">
+        <v>2.9234704150000002</v>
+      </c>
       <c r="M120" s="14">
         <v>0.55942129629629633</v>
       </c>
@@ -8216,7 +8228,7 @@
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B121">
         <v>31</v>
@@ -8245,6 +8257,9 @@
       <c r="J121">
         <v>0</v>
       </c>
+      <c r="K121">
+        <v>4.2592575190000002</v>
+      </c>
       <c r="M121" s="14">
         <v>0.56077546296296299</v>
       </c>
@@ -8278,7 +8293,7 @@
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B122">
         <v>31</v>
@@ -8307,6 +8322,9 @@
       <c r="J122">
         <v>0</v>
       </c>
+      <c r="K122">
+        <v>4.4222459330000001</v>
+      </c>
       <c r="M122" s="14">
         <v>0.56174768518518514</v>
       </c>
@@ -8340,7 +8358,7 @@
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B123">
         <v>31</v>
@@ -8369,6 +8387,9 @@
       <c r="J123">
         <v>1</v>
       </c>
+      <c r="K123">
+        <v>4.7245195960000004</v>
+      </c>
       <c r="M123" s="14">
         <v>0.5627199074074074</v>
       </c>
@@ -8402,7 +8423,7 @@
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B124">
         <v>31</v>
@@ -8431,6 +8452,9 @@
       <c r="J124">
         <v>0</v>
       </c>
+      <c r="K124">
+        <v>4.2735231269999998</v>
+      </c>
       <c r="M124" s="14">
         <v>0.5655324074074074</v>
       </c>
@@ -8464,7 +8488,7 @@
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B125">
         <v>31</v>
@@ -8493,6 +8517,9 @@
       <c r="J125">
         <v>0</v>
       </c>
+      <c r="K125">
+        <v>2.0419352919999998</v>
+      </c>
       <c r="M125" s="14">
         <v>0.56700231481481478</v>
       </c>
@@ -8526,7 +8553,7 @@
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B126">
         <v>31</v>
@@ -8555,6 +8582,9 @@
       <c r="J126">
         <v>0</v>
       </c>
+      <c r="K126">
+        <v>1.186855204</v>
+      </c>
       <c r="M126" s="14">
         <v>0.56922453703703701</v>
       </c>
@@ -8588,7 +8618,7 @@
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B127">
         <v>31</v>
@@ -8617,6 +8647,9 @@
       <c r="J127">
         <v>0</v>
       </c>
+      <c r="K127">
+        <v>0.9627588923</v>
+      </c>
       <c r="M127" s="14">
         <v>0.57114583333333335</v>
       </c>
@@ -8650,7 +8683,7 @@
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B128">
         <v>31</v>
@@ -8679,6 +8712,9 @@
       <c r="J128">
         <v>0</v>
       </c>
+      <c r="K128">
+        <v>2.904330334</v>
+      </c>
       <c r="M128" s="14">
         <v>0.57197916666666659</v>
       </c>
@@ -8712,7 +8748,7 @@
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B129">
         <v>31</v>
@@ -8741,6 +8777,9 @@
       <c r="J129">
         <v>1</v>
       </c>
+      <c r="K129">
+        <v>3.4180613150000001</v>
+      </c>
       <c r="M129" s="14">
         <v>0.64006944444444447</v>
       </c>
@@ -8774,7 +8813,7 @@
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B130">
         <v>31</v>
@@ -8803,6 +8842,9 @@
       <c r="J130">
         <v>1</v>
       </c>
+      <c r="K130">
+        <v>2.8176460269999999</v>
+      </c>
       <c r="M130" s="14">
         <v>0.64284722222222224</v>
       </c>
@@ -8836,7 +8878,7 @@
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B131">
         <v>31</v>
@@ -8865,6 +8907,9 @@
       <c r="J131">
         <v>0</v>
       </c>
+      <c r="K131">
+        <v>3.1866604180000002</v>
+      </c>
       <c r="M131" s="14">
         <v>0.64405092592592594</v>
       </c>
@@ -8898,7 +8943,7 @@
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B132">
         <v>31</v>
@@ -8927,6 +8972,9 @@
       <c r="J132">
         <v>0</v>
       </c>
+      <c r="K132">
+        <v>2.6876619900000001</v>
+      </c>
       <c r="M132" s="14">
         <v>0.64525462962962965</v>
       </c>
@@ -8960,7 +9008,7 @@
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B133">
         <v>32</v>
@@ -9022,7 +9070,7 @@
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B134">
         <v>32</v>
@@ -9051,6 +9099,9 @@
       <c r="J134">
         <v>1</v>
       </c>
+      <c r="K134">
+        <v>12.412798796227813</v>
+      </c>
       <c r="M134" s="14">
         <v>0.78675925925925927</v>
       </c>
@@ -9084,7 +9135,7 @@
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B135">
         <v>32</v>
@@ -9113,6 +9164,9 @@
       <c r="J135">
         <v>0</v>
       </c>
+      <c r="K135">
+        <v>1.70742074563788</v>
+      </c>
       <c r="M135" s="14">
         <v>0.78922453703703699</v>
       </c>
@@ -9146,7 +9200,7 @@
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B136">
         <v>32</v>
@@ -9175,6 +9229,9 @@
       <c r="J136">
         <v>1</v>
       </c>
+      <c r="K136">
+        <v>3.0350051616826277</v>
+      </c>
       <c r="M136" s="14">
         <v>0.78995370370370377</v>
       </c>
@@ -9208,7 +9265,7 @@
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B137">
         <v>32</v>
@@ -9237,6 +9294,9 @@
       <c r="J137">
         <v>0</v>
       </c>
+      <c r="K137">
+        <v>5.4767525594988511</v>
+      </c>
       <c r="M137" s="14">
         <v>0.79071759259259267</v>
       </c>
@@ -9270,7 +9330,7 @@
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B138">
         <v>32</v>
@@ -9299,6 +9359,9 @@
       <c r="J138">
         <v>0</v>
       </c>
+      <c r="K138">
+        <v>1.848929157171568</v>
+      </c>
       <c r="M138" s="14">
         <v>0.79143518518518519</v>
       </c>
@@ -9332,7 +9395,7 @@
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B139">
         <v>32</v>
@@ -9361,6 +9424,9 @@
       <c r="J139">
         <v>0</v>
       </c>
+      <c r="K139">
+        <v>1.231077584381411</v>
+      </c>
       <c r="M139" s="14">
         <v>0.79212962962962974</v>
       </c>
@@ -9394,7 +9460,7 @@
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B140">
         <v>32</v>
@@ -9423,6 +9489,9 @@
       <c r="J140">
         <v>0</v>
       </c>
+      <c r="K140">
+        <v>1.0270619241967145</v>
+      </c>
       <c r="M140" s="14">
         <v>0.79284722222222215</v>
       </c>
@@ -9456,7 +9525,7 @@
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B141">
         <v>32</v>
@@ -9485,6 +9554,9 @@
       <c r="J141">
         <v>0</v>
       </c>
+      <c r="K141">
+        <v>2.6134719500141266</v>
+      </c>
       <c r="M141" s="14">
         <v>0.79393518518518524</v>
       </c>
@@ -9518,7 +9590,7 @@
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B142">
         <v>32</v>
@@ -9547,6 +9619,9 @@
       <c r="J142">
         <v>0</v>
       </c>
+      <c r="K142">
+        <v>1.7584039242496727</v>
+      </c>
       <c r="M142" s="14">
         <v>0.79636574074074085</v>
       </c>
@@ -9580,7 +9655,7 @@
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B143">
         <v>33</v>
@@ -9642,7 +9717,7 @@
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B144">
         <v>33</v>
@@ -9704,7 +9779,7 @@
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B145">
         <v>33</v>
@@ -9766,7 +9841,7 @@
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B146">
         <v>33</v>
@@ -9831,7 +9906,7 @@
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B147">
         <v>33</v>
@@ -9896,7 +9971,7 @@
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B148">
         <v>33</v>
@@ -9961,7 +10036,7 @@
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B149">
         <v>33</v>
@@ -10026,7 +10101,7 @@
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B150">
         <v>33</v>
@@ -10091,7 +10166,7 @@
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B151">
         <v>33</v>
@@ -10156,7 +10231,7 @@
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B152">
         <v>33</v>
@@ -10221,7 +10296,7 @@
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B153">
         <v>33</v>
@@ -10286,7 +10361,7 @@
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B154">
         <v>33</v>
@@ -10295,7 +10370,7 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E154">
         <v>91</v>
@@ -10349,12 +10424,12 @@
         <v>33.95635</v>
       </c>
       <c r="W154" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B155">
         <v>33</v>
@@ -10363,7 +10438,7 @@
         <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E155">
         <v>51</v>
@@ -10417,12 +10492,12 @@
         <v>33.95635</v>
       </c>
       <c r="W155" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B156">
         <v>33</v>
@@ -10431,7 +10506,7 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E156">
         <v>32</v>
@@ -10485,12 +10560,12 @@
         <v>33.95635</v>
       </c>
       <c r="W156" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B157">
         <v>33</v>
@@ -10499,7 +10574,7 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E157">
         <v>16</v>
@@ -10553,12 +10628,12 @@
         <v>33.95635</v>
       </c>
       <c r="W157" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B158">
         <v>33</v>
@@ -10567,7 +10642,7 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E158">
         <v>9</v>
@@ -10621,12 +10696,12 @@
         <v>33.95635</v>
       </c>
       <c r="W158" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B159">
         <v>33</v>
@@ -10635,7 +10710,7 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E159">
         <v>5</v>
@@ -10675,12 +10750,12 @@
         <v>33.95635</v>
       </c>
       <c r="W159" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B160">
         <v>33</v>
@@ -10689,7 +10764,7 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E160">
         <v>3</v>
@@ -10741,12 +10816,12 @@
         <v>33.95635</v>
       </c>
       <c r="W160" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B161">
         <v>33</v>
@@ -10755,7 +10830,7 @@
         <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E161">
         <v>2</v>
@@ -10809,12 +10884,12 @@
         <v>33.95635</v>
       </c>
       <c r="W161" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="162" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B162" s="3">
         <v>34</v>
@@ -10877,7 +10952,7 @@
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B163">
         <v>34</v>
@@ -10939,7 +11014,7 @@
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B164">
         <v>34</v>
@@ -11001,7 +11076,7 @@
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B165">
         <v>34</v>
@@ -11063,7 +11138,7 @@
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B166">
         <v>34</v>
@@ -11125,7 +11200,7 @@
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B167">
         <v>34</v>
@@ -11187,7 +11262,7 @@
     </row>
     <row r="168" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B168" s="3">
         <v>34</v>
@@ -11253,7 +11328,7 @@
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B169">
         <v>34</v>
@@ -11318,7 +11393,7 @@
     </row>
     <row r="170" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B170">
         <v>34</v>
@@ -11383,7 +11458,7 @@
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B171">
         <v>34</v>
@@ -11448,7 +11523,7 @@
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B172">
         <v>34</v>
@@ -11513,7 +11588,7 @@
     </row>
     <row r="173" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B173">
         <v>34</v>
@@ -11578,7 +11653,7 @@
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B174">
         <v>34</v>
@@ -11643,7 +11718,7 @@
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B175">
         <v>34</v>
@@ -11708,7 +11783,7 @@
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B176">
         <v>34.5</v>
@@ -11773,7 +11848,7 @@
     </row>
     <row r="177" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B177">
         <v>34.5</v>
@@ -11838,7 +11913,7 @@
     </row>
     <row r="178" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B178">
         <v>34.5</v>
@@ -11903,7 +11978,7 @@
     </row>
     <row r="179" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B179">
         <v>34.5</v>
@@ -11968,7 +12043,7 @@
     </row>
     <row r="180" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B180">
         <v>34.5</v>
@@ -12033,7 +12108,7 @@
     </row>
     <row r="181" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B181">
         <v>34.5</v>
@@ -12081,7 +12156,7 @@
     </row>
     <row r="182" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B182">
         <v>34.5</v>
@@ -12129,7 +12204,7 @@
     </row>
     <row r="183" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B183">
         <v>34.5</v>
@@ -12177,7 +12252,7 @@
     </row>
     <row r="184" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B184">
         <v>35</v>
@@ -12242,7 +12317,7 @@
     </row>
     <row r="185" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B185">
         <v>35</v>
@@ -12307,7 +12382,7 @@
     </row>
     <row r="186" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B186">
         <v>35</v>
@@ -12372,7 +12447,7 @@
     </row>
     <row r="187" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B187">
         <v>35</v>
@@ -12437,7 +12512,7 @@
     </row>
     <row r="188" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B188">
         <v>35</v>
@@ -12502,7 +12577,7 @@
     </row>
     <row r="189" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B189">
         <v>35</v>
@@ -12567,7 +12642,7 @@
     </row>
     <row r="190" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B190">
         <v>35</v>
@@ -12632,7 +12707,7 @@
     </row>
     <row r="191" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B191">
         <v>35</v>
@@ -12697,7 +12772,7 @@
     </row>
     <row r="192" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B192">
         <v>35</v>
@@ -12762,7 +12837,7 @@
     </row>
     <row r="193" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B193">
         <v>36</v>
@@ -12791,6 +12866,9 @@
       <c r="J193">
         <v>0</v>
       </c>
+      <c r="K193">
+        <v>6.6498519762389527</v>
+      </c>
       <c r="M193" s="14">
         <v>0.55025462962962968</v>
       </c>
@@ -12824,7 +12902,7 @@
     </row>
     <row r="194" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B194">
         <v>36</v>
@@ -12886,7 +12964,7 @@
     </row>
     <row r="195" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B195">
         <v>36</v>
@@ -12948,7 +13026,7 @@
     </row>
     <row r="196" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B196">
         <v>36</v>
@@ -13010,7 +13088,7 @@
     </row>
     <row r="197" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B197">
         <v>36</v>
@@ -13072,7 +13150,7 @@
     </row>
     <row r="198" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B198">
         <v>36</v>
@@ -13134,7 +13212,7 @@
     </row>
     <row r="199" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B199">
         <v>36</v>
@@ -13196,7 +13274,7 @@
     </row>
     <row r="200" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B200">
         <v>36</v>
@@ -13258,7 +13336,7 @@
     </row>
     <row r="201" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B201">
         <v>36</v>
@@ -13320,7 +13398,7 @@
     </row>
     <row r="202" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B202">
         <v>36</v>
@@ -13382,7 +13460,7 @@
     </row>
     <row r="203" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B203">
         <v>37</v>
@@ -13411,6 +13489,9 @@
       <c r="J203">
         <v>0</v>
       </c>
+      <c r="K203">
+        <v>6.2225036998750411</v>
+      </c>
       <c r="M203" s="14">
         <v>0.81886574074074081</v>
       </c>
@@ -13444,7 +13525,7 @@
     </row>
     <row r="204" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B204">
         <v>37</v>
@@ -13506,7 +13587,7 @@
     </row>
     <row r="205" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B205">
         <v>37</v>
@@ -13568,7 +13649,7 @@
     </row>
     <row r="206" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B206">
         <v>37</v>
@@ -13630,7 +13711,7 @@
     </row>
     <row r="207" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B207">
         <v>37</v>
@@ -13692,7 +13773,7 @@
     </row>
     <row r="208" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B208">
         <v>37</v>
@@ -13754,7 +13835,7 @@
     </row>
     <row r="209" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B209">
         <v>37</v>
@@ -13816,7 +13897,7 @@
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B210">
         <v>37</v>
@@ -13878,7 +13959,7 @@
     </row>
     <row r="211" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B211">
         <v>38</v>
@@ -13941,12 +14022,12 @@
         <v>33.906649999999999</v>
       </c>
       <c r="W211" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="212" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B212">
         <v>38</v>
@@ -14011,7 +14092,7 @@
     </row>
     <row r="213" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B213">
         <v>38</v>
@@ -14076,7 +14157,7 @@
     </row>
     <row r="214" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B214">
         <v>38</v>
@@ -14141,7 +14222,7 @@
     </row>
     <row r="215" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B215">
         <v>38</v>
@@ -14206,7 +14287,7 @@
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B216">
         <v>38</v>
@@ -14271,7 +14352,7 @@
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B217">
         <v>38</v>
@@ -14336,7 +14417,7 @@
     </row>
     <row r="218" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B218">
         <v>38</v>
@@ -14401,16 +14482,16 @@
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B219" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E219" s="5">
         <v>194.7</v>
@@ -14463,16 +14544,16 @@
     </row>
     <row r="220" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B220" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E220" s="6">
         <v>248.79400000000001</v>
@@ -14526,16 +14607,16 @@
     </row>
     <row r="221" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B221" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E221" s="6">
         <v>249.572</v>
@@ -14589,16 +14670,16 @@
     </row>
     <row r="222" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B222" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C222">
         <v>2</v>
       </c>
       <c r="D222" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E222" s="6">
         <v>194.209</v>
@@ -14652,16 +14733,16 @@
     </row>
     <row r="223" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B223" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C223">
         <v>2</v>
       </c>
       <c r="D223" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E223" s="6">
         <v>194.54300000000001</v>
@@ -14715,16 +14796,16 @@
     </row>
     <row r="224" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B224" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C224">
         <v>2</v>
       </c>
       <c r="D224" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E224" s="6">
         <v>271.05799999999999</v>
@@ -14778,16 +14859,16 @@
     </row>
     <row r="225" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B225" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C225">
         <v>2</v>
       </c>
       <c r="D225" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E225" s="6">
         <v>271.24099999999999</v>
@@ -14841,16 +14922,16 @@
     </row>
     <row r="226" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B226" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C226">
         <v>3</v>
       </c>
       <c r="D226" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E226" s="4">
         <v>124</v>
@@ -14904,16 +14985,16 @@
     </row>
     <row r="227" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B227" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C227">
         <v>3</v>
       </c>
       <c r="D227" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E227" s="4">
         <v>97</v>
@@ -14967,16 +15048,16 @@
     </row>
     <row r="228" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B228" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C228">
         <v>3</v>
       </c>
       <c r="D228" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E228" s="4">
         <v>83</v>
@@ -15030,16 +15111,16 @@
     </row>
     <row r="229" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C229">
         <v>3</v>
       </c>
       <c r="D229" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E229" s="4">
         <v>68</v>
@@ -15093,16 +15174,16 @@
     </row>
     <row r="230" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B230" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C230">
         <v>3</v>
       </c>
       <c r="D230" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E230" s="4">
         <v>43</v>
@@ -15156,16 +15237,16 @@
     </row>
     <row r="231" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B231" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E231" s="6">
         <v>789.83500000000004</v>
@@ -15219,16 +15300,16 @@
     </row>
     <row r="232" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B232" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E232" s="6">
         <v>787.96199999999999</v>
@@ -15282,10 +15363,10 @@
     </row>
     <row r="233" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B233" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -15343,16 +15424,16 @@
     </row>
     <row r="234" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B234" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E234" s="6">
         <v>235.215</v>
@@ -15406,16 +15487,16 @@
     </row>
     <row r="235" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B235" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E235" s="6">
         <v>192.65199999999999</v>
@@ -15469,10 +15550,10 @@
     </row>
     <row r="236" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B236" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -15530,16 +15611,16 @@
     </row>
     <row r="237" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B237" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E237" s="4">
         <v>124</v>
@@ -15590,21 +15671,21 @@
         <v>9</v>
       </c>
       <c r="W237" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="238" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B238" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E238" s="4">
         <v>97</v>
@@ -15655,21 +15736,21 @@
         <v>9</v>
       </c>
       <c r="W238" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="239" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B239" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E239" s="4">
         <v>83</v>
@@ -15720,21 +15801,21 @@
         <v>9</v>
       </c>
       <c r="W239" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="240" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B240" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E240" s="4">
         <v>68</v>
@@ -15785,21 +15866,21 @@
         <v>9</v>
       </c>
       <c r="W240" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="241" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B241" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E241" s="4">
         <v>43</v>
@@ -15850,21 +15931,21 @@
         <v>9</v>
       </c>
       <c r="W241" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="242" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B242" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E242" s="6">
         <v>250.14400000000001</v>
@@ -15918,16 +15999,16 @@
     </row>
     <row r="243" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B243" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C243">
         <v>2</v>
       </c>
       <c r="D243" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E243" s="6">
         <v>196.565</v>
@@ -15981,16 +16062,16 @@
     </row>
     <row r="244" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B244" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C244">
         <v>2</v>
       </c>
       <c r="D244" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E244" s="4">
         <v>124</v>
@@ -16041,21 +16122,21 @@
         <v>9</v>
       </c>
       <c r="W244" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="245" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B245" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C245">
         <v>2</v>
       </c>
       <c r="D245" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E245" s="4">
         <v>97</v>
@@ -16106,21 +16187,21 @@
         <v>9</v>
       </c>
       <c r="W245" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="246" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B246" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C246">
         <v>2</v>
       </c>
       <c r="D246" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E246" s="4">
         <v>83</v>
@@ -16171,21 +16252,21 @@
         <v>9</v>
       </c>
       <c r="W246" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="247" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B247" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C247">
         <v>2</v>
       </c>
       <c r="D247" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E247" s="4">
         <v>68</v>
@@ -16236,21 +16317,21 @@
         <v>9</v>
       </c>
       <c r="W247" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="248" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B248" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C248">
         <v>2</v>
       </c>
       <c r="D248" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E248" s="4">
         <v>43</v>
@@ -16301,18 +16382,18 @@
         <v>9</v>
       </c>
       <c r="W248" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="249" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B249">
         <v>3</v>
       </c>
       <c r="D249" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E249">
         <v>88</v>
@@ -16331,18 +16412,18 @@
         <v>9</v>
       </c>
       <c r="W249" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="250" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B250">
         <v>3</v>
       </c>
       <c r="D250" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E250">
         <v>87</v>
@@ -16361,18 +16442,18 @@
         <v>9</v>
       </c>
       <c r="W250" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="251" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B251">
         <v>3</v>
       </c>
       <c r="D251" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E251">
         <v>84</v>
@@ -16391,18 +16472,18 @@
         <v>9</v>
       </c>
       <c r="W251" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="252" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B252">
         <v>3</v>
       </c>
       <c r="D252" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E252">
         <v>80</v>
@@ -16421,18 +16502,18 @@
         <v>9</v>
       </c>
       <c r="W252" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="253" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B253">
         <v>3</v>
       </c>
       <c r="D253" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E253">
         <v>75</v>
@@ -16451,18 +16532,18 @@
         <v>9</v>
       </c>
       <c r="W253" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="254" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B254">
         <v>3</v>
       </c>
       <c r="D254" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E254">
         <v>60</v>
@@ -16481,18 +16562,18 @@
         <v>9</v>
       </c>
       <c r="W254" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="255" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B255">
         <v>3</v>
       </c>
       <c r="D255" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E255">
         <v>55</v>
@@ -16511,18 +16592,18 @@
         <v>9</v>
       </c>
       <c r="W255" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="256" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B256">
         <v>3</v>
       </c>
       <c r="D256" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E256">
         <v>50</v>
@@ -16541,18 +16622,18 @@
         <v>9</v>
       </c>
       <c r="W256" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="257" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B257">
         <v>3</v>
       </c>
       <c r="D257" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E257">
         <v>45</v>
@@ -16571,18 +16652,18 @@
         <v>9</v>
       </c>
       <c r="W257" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="258" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B258">
         <v>3</v>
       </c>
       <c r="D258" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E258">
         <v>40</v>
@@ -16601,18 +16682,18 @@
         <v>9</v>
       </c>
       <c r="W258" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="259" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B259">
         <v>3</v>
       </c>
       <c r="D259" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E259">
         <v>30</v>
@@ -16631,18 +16712,18 @@
         <v>9</v>
       </c>
       <c r="W259" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="260" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B260">
         <v>3</v>
       </c>
       <c r="D260" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E260">
         <v>20</v>
@@ -16661,18 +16742,18 @@
         <v>9</v>
       </c>
       <c r="W260" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="261" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B261">
         <v>3</v>
       </c>
       <c r="D261" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E261">
         <v>15</v>
@@ -16691,18 +16772,18 @@
         <v>9</v>
       </c>
       <c r="W261" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="262" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B262">
         <v>3</v>
       </c>
       <c r="D262" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E262">
         <v>10</v>
@@ -16721,18 +16802,18 @@
         <v>9</v>
       </c>
       <c r="W262" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="263" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B263">
         <v>4</v>
       </c>
       <c r="D263" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E263">
         <v>116</v>
@@ -16751,18 +16832,18 @@
         <v>9</v>
       </c>
       <c r="W263" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="264" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B264">
         <v>4</v>
       </c>
       <c r="D264" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E264">
         <v>110</v>
@@ -16781,18 +16862,18 @@
         <v>9</v>
       </c>
       <c r="W264" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="265" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B265">
         <v>4</v>
       </c>
       <c r="D265" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E265">
         <v>100</v>
@@ -16811,18 +16892,18 @@
         <v>9</v>
       </c>
       <c r="W265" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="266" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B266">
         <v>4</v>
       </c>
       <c r="D266" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E266">
         <v>90</v>
@@ -16841,18 +16922,18 @@
         <v>9</v>
       </c>
       <c r="W266" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="267" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B267">
         <v>4</v>
       </c>
       <c r="D267" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E267">
         <v>70</v>
@@ -16871,18 +16952,18 @@
         <v>9</v>
       </c>
       <c r="W267" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="268" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B268">
         <v>4</v>
       </c>
       <c r="D268" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E268">
         <v>55</v>
@@ -16901,18 +16982,18 @@
         <v>9</v>
       </c>
       <c r="W268" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="269" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B269">
         <v>4</v>
       </c>
       <c r="D269" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E269">
         <v>45</v>
@@ -16931,18 +17012,18 @@
         <v>9</v>
       </c>
       <c r="W269" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="270" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B270">
         <v>4</v>
       </c>
       <c r="D270" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E270">
         <v>35</v>
@@ -16961,18 +17042,18 @@
         <v>9</v>
       </c>
       <c r="W270" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="271" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B271">
         <v>4</v>
       </c>
       <c r="D271" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E271">
         <v>30</v>
@@ -16991,18 +17072,18 @@
         <v>9</v>
       </c>
       <c r="W271" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="272" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B272">
         <v>4</v>
       </c>
       <c r="D272" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E272">
         <v>10</v>
@@ -17021,7 +17102,7 @@
         <v>9</v>
       </c>
       <c r="W272" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -17042,7 +17123,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17062,13 +17143,13 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I1">
-        <v>20220930</v>
+        <v>20230209</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -17079,13 +17160,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -17096,10 +17174,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -17110,13 +17188,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -17127,7 +17202,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -17140,6 +17218,9 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -17154,46 +17235,46 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
